--- a/notes.xlsx
+++ b/notes.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/team/github/neural-networks-and-deep-learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/team/github/DeepLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="860" windowWidth="43540" windowHeight="26720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="26940" yWindow="480" windowWidth="24260" windowHeight="26720" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
     <sheet name="Backwardpropagation Math" sheetId="2" r:id="rId2"/>
-    <sheet name="Backwardpropagation Method" sheetId="3" r:id="rId3"/>
+    <sheet name="Proof - derivitive of sigmoid" sheetId="4" r:id="rId3"/>
+    <sheet name="Cross-entropy cost func" sheetId="5" r:id="rId4"/>
+    <sheet name="Backwardpropagation Method" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>training_data</t>
   </si>
@@ -2428,13 +2430,1602 @@
   </si>
   <si>
     <t>∂w/∂z = 1/a</t>
+  </si>
+  <si>
+    <t>Method A:</t>
+  </si>
+  <si>
+    <t>Method B:</t>
+  </si>
+  <si>
+    <t>https://math.stackexchange.com/questions/78575/derivative-of-sigmoid-function-sigma-x-frac11e-x</t>
+  </si>
+  <si>
+    <t>http://kawahara.ca/how-to-compute-the-derivative-of-a-sigmoid-function-fully-worked-example/</t>
+  </si>
+  <si>
+    <t>More Details</t>
+  </si>
+  <si>
+    <r>
+      <t>x=-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF228B22"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>% Test values.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>./</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF228B22"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>% Sigmoid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ds = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>./</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>.^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF228B22"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>% Derivative of sigmoid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>x,s,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'b*'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>x,ds,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'r+'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>legend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'sigmoid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'derivative-sigmoid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'location'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'best'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x=-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">s = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>./</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>x,s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'sigmoid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ds1 = s.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3333FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>-s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF228B22"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>% Another simpler way to compute the derivative of a sigmoid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>x,ds,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'r+'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">x,ds1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'go'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>legend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'(e^{-x})/((1+e^{-x})^2)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'(s(x))(1-s(x))'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'location'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'best'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF110000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFA020F0"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'derivative of sigmoid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF008800"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Problem of quadratic cost function</t>
+  </si>
+  <si>
+    <r>
+      <t>We can see from this graph that when the neuron's output is close to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>the curve gets very flat, and so σ′(z)σ′(z) gets very small.</t>
+  </si>
+  <si>
+    <t>the learning slowdown</t>
+  </si>
+  <si>
+    <t>Introducing the cross-entropy cost function</t>
+  </si>
+  <si>
+    <r>
+      <t>We substitute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A6EA6"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>(57)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+  </si>
+  <si>
+    <t>and apply the chain rule twice, obtaining:</t>
+  </si>
+  <si>
+    <t>==&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXVariants"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>)(1−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>)=1/(1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Regular"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar way, </t>
+  </si>
+  <si>
+    <t>Softmax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">briefly describe another approach to the problem, based on what are called </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>softmax</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> layers of neurons.</t>
+    </r>
+  </si>
+  <si>
+    <t>the problem of learning slowdown</t>
+  </si>
+  <si>
+    <t>The idea of softmax is to define a new type of output layer for our neural networks.</t>
+  </si>
+  <si>
+    <t>However, we don't apply the sigmoid function to get the output.</t>
+  </si>
+  <si>
+    <r>
+      <t>Instead, in a softmax layer we apply the so-called </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>softmax function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You can think of softmax as a way of rescaling the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="STIXGeneral-Italic"/>
+      </rPr>
+      <t>Lj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF2A2A2A"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>zjL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF333333"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>, and then squishing them together to form a probability distribution.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LLux1SW--oM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2758,6 +4349,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF110000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3333FF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF228B22"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF008800"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFA020F0"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2888,7 +4515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -2935,6 +4562,12 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2944,7 +4577,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5008,6 +6643,763 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>183846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="673100"/>
+          <a:ext cx="6146800" cy="6985000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>33019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="9347200"/>
+          <a:ext cx="11442700" cy="5803900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="erivative_of_sigmoid"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9321800" y="2184400"/>
+          <a:ext cx="2857500" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="/var/folders/64/90m1n0_570x7d_399t1p9cxw0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/derivative_of_sigmoid.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8310880" y="4673600"/>
+          <a:ext cx="5318760" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5" descr="/var/folders/64/90m1n0_570x7d_399t1p9cxw0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/sigmoid.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12557760" y="0"/>
+          <a:ext cx="5318760" cy="4010660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6" descr="/var/folders/64/90m1n0_570x7d_399t1p9cxw0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/derivative_of_sigmoid_two_ways.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13451840" y="10627360"/>
+          <a:ext cx="5318760" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="812800"/>
+          <a:ext cx="8458200" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="2133600"/>
+          <a:ext cx="9817100" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="4495800"/>
+          <a:ext cx="5181600" cy="3557409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>544678</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4927600" y="8750300"/>
+          <a:ext cx="3046578" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="8902700"/>
+          <a:ext cx="3086100" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>60181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="10312400"/>
+          <a:ext cx="9182100" cy="1114281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>193579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="13208001"/>
+          <a:ext cx="7886700" cy="1920778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>169696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="15748000"/>
+          <a:ext cx="7962900" cy="982496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="18249900"/>
+          <a:ext cx="7518400" cy="1049548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="19850100"/>
+          <a:ext cx="7454900" cy="1082662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396522</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10007600" y="23825200"/>
+          <a:ext cx="294922" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>188831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="24409400"/>
+          <a:ext cx="5854700" cy="1052431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
@@ -5580,17 +7972,17 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="34" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="H2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -5636,12 +8028,12 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5688,12 +8080,12 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
@@ -5758,8 +8150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" zoomScale="113" workbookViewId="0">
-      <selection activeCell="S212" sqref="S212"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6411,7 +8803,7 @@
       <c r="O189" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P189" s="37" t="s">
+      <c r="P189" s="34" t="s">
         <v>107</v>
       </c>
       <c r="Q189" t="s">
@@ -6469,7 +8861,7 @@
       <c r="O207" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="P207" s="37" t="s">
+      <c r="P207" s="34" t="s">
         <v>107</v>
       </c>
       <c r="Q207" t="s">
@@ -6579,6 +8971,233 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W60" sqref="W60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="35"/>
+      <c r="K3" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K18" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K19" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K20" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K21" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q45" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q47" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q48" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="17:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q49" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="62" x14ac:dyDescent="0.7">
+      <c r="A37" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="25" x14ac:dyDescent="0.25">
+      <c r="B57" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="62" x14ac:dyDescent="0.7">
+      <c r="B97" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="B100" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="C103" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="28" x14ac:dyDescent="0.4">
+      <c r="C104" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="32" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" location="introducing_the_cross-entropy_cost_function"/>
+    <hyperlink ref="B97" r:id="rId2" location="softmax"/>
+    <hyperlink ref="B112" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A85" zoomScale="176" workbookViewId="0">
